--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622DF1DB-1BB1-4D95-A920-91A945DC4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD6C69-0B11-A146-A881-E144D637E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -37,16 +37,22 @@
     <t>res</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test123</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>pavan@gmail.com</t>
+    <t>boblerry@gmail.com</t>
+  </si>
+  <si>
+    <t>boblerry3@gmail.com</t>
+  </si>
+  <si>
+    <t>boob@gmail.com</t>
+  </si>
+  <si>
+    <t>bbboblerry@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -456,17 +462,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,45 +483,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
